--- a/Montos.xlsx
+++ b/Montos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\Desktop\Trabajos\2021\UCR\I Semestre\Analisis de inversiones\Labotatorio 3\Laboratorio-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2975F4DB-7B08-4A70-BA7A-99EBA3BC69E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61326F77-059A-4B57-BE27-1140EBB38E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A99DA151-8A55-4175-9332-9C175E0375BD}"/>
   </bookViews>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Fecha de pago</t>
+    <t>MontoTotalADistribuirEnColones</t>
   </si>
   <si>
-    <t>Monto total a distribuir en colones</t>
+    <t>FechaDePago</t>
   </si>
   <si>
-    <t xml:space="preserve">Diviendo por acción </t>
+    <t xml:space="preserve">DiviendoPorAcción </t>
   </si>
   <si>
-    <t>Total de acciones</t>
+    <t>TotalDeAcciones</t>
   </si>
 </sst>
 </file>
@@ -45,7 +45,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;₡&quot;* #,##0.00_-;\-&quot;₡&quot;* #,##0.00_-;_-&quot;₡&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;₡&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₡&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -85,7 +85,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +404,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,10 +417,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/Montos.xlsx
+++ b/Montos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\Desktop\Trabajos\2021\UCR\I Semestre\Analisis de inversiones\Labotatorio 3\Laboratorio-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61326F77-059A-4B57-BE27-1140EBB38E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EAB6DE-3E99-4C9D-AD16-1671EFBBB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A99DA151-8A55-4175-9332-9C175E0375BD}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECE08D5-AC22-45D9-8885-137DCFFB3036}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,7 +455,7 @@
         <v>1.05</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D18" si="0">B3/C3</f>
+        <f t="shared" ref="D3:D20" si="0">B3/C3</f>
         <v>8577370731.4285707</v>
       </c>
     </row>
@@ -680,6 +680,36 @@
         <v>1.5</v>
       </c>
       <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>8577370731.333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5146422439</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>8577370731.666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B20" s="2">
+        <v>12866056097</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>8577370731.333333</v>
       </c>
